--- a/source_analyses/nl/2012/7_services/7_alternative_services_source_analysis.xlsx
+++ b/source_analyses/nl/2012/7_services/7_alternative_services_source_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -181,10 +181,10 @@
     <t>Length</t>
   </si>
   <si>
-    <t>[1] Fleiter et al. (2010) Electricity demand in the European services sector: A detailed bottom-up estimate by sector and by end-use</t>
-  </si>
-  <si>
     <t>Alternative source analysis comparable with the source analysis for other European countries. Values are currently not used for the NL 2012 dataset!</t>
+  </si>
+  <si>
+    <t>[1] Fraunhofer_201004_Electricity demand in the European service sector: A detailed bottom-up estimate by sector and by end-use (http://refman.et-model.com/publications/1875)</t>
   </si>
 </sst>
 </file>
@@ -922,9 +922,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -939,7 +937,7 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -1527,7 +1525,7 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
